--- a/VVSS/lab1/CheckLists/Lab01_ReviewReport.xlsx
+++ b/VVSS/lab1/CheckLists/Lab01_ReviewReport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="62">
   <si>
     <t xml:space="preserve">do not print this form</t>
   </si>
@@ -111,6 +111,9 @@
     <t xml:space="preserve">Effort to review document (hours):</t>
   </si>
   <si>
+    <t xml:space="preserve">x</t>
+  </si>
+  <si>
     <t xml:space="preserve">Review Form. Architectural Design Defects</t>
   </si>
   <si>
@@ -123,6 +126,48 @@
     <t xml:space="preserve">Georgescu Anca</t>
   </si>
   <si>
+    <t xml:space="preserve">A03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DiagramSalariati_v1.0.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The architecture does not include a view layer, therefore not taking the “console application” layer into account.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The layers are not clearly separated and into cohesive groups(ex. The domain layer classes are not grouped together)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Main class StartApp takes the view layer’s place.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StartApp does not follow a consistent naming scheme with the other components which are all named using nouns.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The behaviour of the controller is not separated from the implementation through an interface. This violates the open-closed principle in case new service implementations have to be added.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The employee class is missing the firstName field.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EmployeeImpl should be named EmployeeRepositoryImpl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EmployeMock should be named EmployeeRepositoryMock</t>
+  </si>
+  <si>
     <t xml:space="preserve">Review Form. Coding Defects</t>
   </si>
   <si>
@@ -130,6 +175,39 @@
   </si>
   <si>
     <t xml:space="preserve">Popescu Ionel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EmployeeImpl/60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A call of a non-static method is attempted on the Employee class.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employee/35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The constructor lacks a firstName parameter.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EmployeeValidator/12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The condition should be that the CNP should only contain numbers not letters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employee/125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The method was documented to throw an exception, yet the signature did not include that exception</t>
   </si>
 </sst>
 </file>
@@ -139,7 +217,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -217,13 +295,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -306,7 +377,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -371,40 +442,44 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -497,9 +572,9 @@
     <tabColor rgb="FFCCC1DA"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E30" activeCellId="0" sqref="E30"/>
     </sheetView>
   </sheetViews>
@@ -599,7 +674,7 @@
       <c r="C11" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E11" s="15" t="s">
@@ -614,7 +689,7 @@
       <c r="C12" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="14" t="s">
         <v>20</v>
       </c>
       <c r="E12" s="15" t="s">
@@ -629,7 +704,7 @@
       <c r="C13" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E13" s="15" t="s">
@@ -644,7 +719,7 @@
       <c r="C14" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="14" t="s">
         <v>25</v>
       </c>
       <c r="E14" s="15" t="s">
@@ -659,7 +734,7 @@
       <c r="C15" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="14" t="s">
         <v>25</v>
       </c>
       <c r="E15" s="15" t="s">
@@ -691,7 +766,7 @@
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
-      <c r="E18" s="17"/>
+      <c r="E18" s="16"/>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="13" t="n">
@@ -700,7 +775,7 @@
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
-      <c r="E19" s="17"/>
+      <c r="E19" s="16"/>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="13" t="n">
@@ -709,7 +784,7 @@
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
-      <c r="E20" s="17"/>
+      <c r="E20" s="16"/>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="13" t="n">
@@ -718,7 +793,7 @@
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
-      <c r="E21" s="17"/>
+      <c r="E21" s="16"/>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="13" t="n">
@@ -727,7 +802,7 @@
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
-      <c r="E22" s="17"/>
+      <c r="E22" s="16"/>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="13" t="n">
@@ -736,7 +811,7 @@
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
-      <c r="E23" s="17"/>
+      <c r="E23" s="16"/>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="13" t="n">
@@ -745,7 +820,7 @@
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
-      <c r="E24" s="17"/>
+      <c r="E24" s="16"/>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="13" t="n">
@@ -754,18 +829,23 @@
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
-      <c r="E25" s="17"/>
+      <c r="E25" s="16"/>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E26" s="18"/>
+      <c r="E26" s="17"/>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="20"/>
+      <c r="D27" s="19"/>
       <c r="E27" s="14" t="n">
         <v>0.75</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E30" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -794,8 +874,8 @@
   </sheetPr>
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -815,29 +895,29 @@
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="22"/>
+      <c r="D4" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="21"/>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="23" t="s">
+      <c r="C5" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="23"/>
+      <c r="D5" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="22"/>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="8"/>
@@ -853,10 +933,10 @@
       <c r="C7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="24"/>
+      <c r="E7" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="11" t="s">
@@ -872,78 +952,126 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-    </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="13" t="n">
         <f aca="false">B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-    </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="13" t="n">
         <f aca="false">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="15"/>
-    </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="13" t="n">
         <f aca="false">B12+1</f>
         <v>4</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15"/>
-    </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="13" t="n">
         <f aca="false">B13+1</f>
         <v>5</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-    </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="13" t="n">
         <f aca="false">B14+1</f>
         <v>6</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="15"/>
-    </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="13" t="n">
         <f aca="false">B15+1</f>
         <v>7</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-    </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="13" t="n">
         <f aca="false">B16+1</f>
         <v>8</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-    </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="13" t="n">
         <f aca="false">B17+1</f>
         <v>9</v>
@@ -1025,14 +1153,16 @@
       <c r="E26" s="15"/>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E27" s="18"/>
+      <c r="E27" s="17"/>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="14"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="14" t="n">
+        <v>0.25</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1060,8 +1190,8 @@
   </sheetPr>
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1082,29 +1212,29 @@
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="4" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="26"/>
+      <c r="D4" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="27"/>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="27"/>
+      <c r="D5" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="28"/>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="8"/>
@@ -1120,10 +1250,10 @@
       <c r="C7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="24"/>
+      <c r="E7" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="11" t="s">
@@ -1139,40 +1269,64 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-    </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="13" t="n">
         <f aca="false">B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="15"/>
-    </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="13" t="n">
         <f aca="false">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="15"/>
-    </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="13" t="n">
         <f aca="false">B12+1</f>
         <v>4</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
+      <c r="C13" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="13" t="n">
@@ -1328,13 +1482,13 @@
       <c r="E30" s="15"/>
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E31" s="18"/>
+      <c r="E31" s="17"/>
     </row>
     <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="20"/>
+      <c r="D32" s="19"/>
       <c r="E32" s="14"/>
     </row>
   </sheetData>

--- a/VVSS/lab1/CheckLists/Lab01_ReviewReport.xlsx
+++ b/VVSS/lab1/CheckLists/Lab01_ReviewReport.xlsx
@@ -217,7 +217,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -288,13 +288,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <i val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -377,7 +370,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -470,16 +463,8 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -974,10 +959,10 @@
       <c r="C11" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="23" t="s">
         <v>38</v>
       </c>
     </row>
@@ -989,7 +974,7 @@
       <c r="C12" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="14" t="s">
         <v>35</v>
       </c>
       <c r="E12" s="15" t="s">
@@ -1004,7 +989,7 @@
       <c r="C13" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="14" t="s">
         <v>35</v>
       </c>
       <c r="E13" s="15" t="s">
@@ -1019,7 +1004,7 @@
       <c r="C14" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="15" t="s">
         <v>35</v>
       </c>
       <c r="E14" s="15" t="s">
@@ -1034,7 +1019,7 @@
       <c r="C15" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="14" t="s">
         <v>35</v>
       </c>
       <c r="E15" s="15" t="s">
@@ -1049,7 +1034,7 @@
       <c r="C16" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="15" t="s">
         <v>35</v>
       </c>
       <c r="E16" s="15" t="s">
@@ -1064,7 +1049,7 @@
       <c r="C17" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="15" t="s">
         <v>35</v>
       </c>
       <c r="E17" s="15" t="s">
@@ -1190,8 +1175,8 @@
   </sheetPr>
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E33" activeCellId="0" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1219,22 +1204,22 @@
       <c r="E2" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="27"/>
+      <c r="E4" s="25"/>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="28"/>
+      <c r="E5" s="26"/>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="8"/>
@@ -1489,7 +1474,9 @@
         <v>28</v>
       </c>
       <c r="D32" s="19"/>
-      <c r="E32" s="14"/>
+      <c r="E32" s="14" t="n">
+        <v>1.25</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
